--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="49">
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="50">
   <si>
     <t>张一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,25 +174,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>academy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计算机与信息工程学院</t>
   </si>
   <si>
-    <t>domitory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>会计学院</t>
   </si>
   <si>
@@ -205,6 +185,30 @@
   </si>
   <si>
     <t>咸嘉3栋399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准考证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿舍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,15 +221,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -551,510 +553,600 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.625" customWidth="1"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1122334455</v>
+      </c>
+      <c r="B2">
+        <v>111111111</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2233445566</v>
+      </c>
+      <c r="B3">
+        <v>111111112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2143312431</v>
+      </c>
+      <c r="B4">
+        <v>111111113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>434687</v>
+      </c>
+      <c r="B5">
+        <v>111111114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>1223345678</v>
+      </c>
+      <c r="B6">
+        <v>111111115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>12234568909</v>
+      </c>
+      <c r="B7">
+        <v>111111116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1134534657</v>
+      </c>
+      <c r="B8">
+        <v>111111117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6546545346</v>
+      </c>
+      <c r="B9">
+        <v>111111118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>32542134</v>
+      </c>
+      <c r="B10">
+        <v>111111119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>12343246354</v>
+      </c>
+      <c r="B11">
+        <v>111111120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>67656543</v>
+      </c>
+      <c r="B12">
+        <v>111111121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>54545134</v>
+      </c>
+      <c r="B13">
+        <v>111111122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>35465456776</v>
+      </c>
+      <c r="B14">
+        <v>111111123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>3454352756</v>
+      </c>
+      <c r="B15">
+        <v>111111124</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>234546678</v>
+      </c>
+      <c r="B16">
+        <v>111111125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>541657564</v>
+      </c>
+      <c r="B17">
+        <v>111111126</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>1234547</v>
+      </c>
+      <c r="B18">
+        <v>111111127</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>123453456</v>
+      </c>
+      <c r="B19">
+        <v>111111128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>544231546</v>
+      </c>
+      <c r="B20">
+        <v>111111129</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>12334256</v>
+      </c>
+      <c r="B21">
+        <v>111111130</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>655464235</v>
+      </c>
+      <c r="B22">
+        <v>111111131</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>12343124546</v>
+      </c>
+      <c r="B23">
+        <v>111111132</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>21345467</v>
+      </c>
+      <c r="B24">
+        <v>111111133</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>43532541234</v>
+      </c>
+      <c r="B25">
+        <v>111111134</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>12343465</v>
+      </c>
+      <c r="B26">
+        <v>111111135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>123434265</v>
+      </c>
+      <c r="B27">
+        <v>111111136</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>6765343254</v>
+      </c>
+      <c r="B28">
+        <v>111111137</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>124356</v>
+      </c>
+      <c r="B29">
+        <v>111111140</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
         <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>111111111</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>111111112</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>111111113</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>111111114</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>111111115</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>111111116</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>111111117</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>111111118</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>111111119</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>111111120</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>111111121</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>111111122</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>111111123</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>111111124</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>111111125</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>111111126</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>111111127</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>111111128</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>111111129</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>111111130</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>111111131</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>111111132</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>111111133</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>111111134</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>111111135</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>111111136</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>111111137</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>111111140</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
